--- a/static/files/KPI/huahuining/KPI.xlsx
+++ b/static/files/KPI/huahuining/KPI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>员工季度绩效评估表</t>
   </si>
@@ -22,28 +22,28 @@
     <t>员工：</t>
   </si>
   <si>
+    <t>华慧宁</t>
+  </si>
+  <si>
+    <t>入职日期：</t>
+  </si>
+  <si>
+    <t>上级主管：</t>
+  </si>
+  <si>
     <t>薛智敏</t>
   </si>
   <si>
-    <t>入职日期：</t>
-  </si>
-  <si>
-    <t>上级主管：</t>
-  </si>
-  <si>
-    <t>倪培军</t>
-  </si>
-  <si>
-    <t>绩效名：</t>
+    <t>绩效周期：</t>
   </si>
   <si>
     <t>2016Q1</t>
   </si>
   <si>
-    <t>维度</t>
-  </si>
-  <si>
-    <t>具体描述</t>
+    <t>评估内容</t>
+  </si>
+  <si>
+    <t>评估标准</t>
   </si>
   <si>
     <t>权重</t>
@@ -61,63 +61,74 @@
     <t>工作绩效</t>
   </si>
   <si>
-    <t>按时到立刻就爱上</t>
-  </si>
-  <si>
-    <t>熟练度附近收到了付款就是地方</t>
-  </si>
-  <si>
-    <t>15%</t>
-  </si>
-  <si>
-    <t>水电费水电费士大夫asdasdas 卡上打开时接电话奥斯卡简</t>
-  </si>
-  <si>
-    <t>2水电费水电费士大夫似的水电费胜多负少的发送到非水电费水电费胜多负少地方水电费胜多负少的发送到非士大夫似的定水电费</t>
-  </si>
-  <si>
-    <t>25%</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>45%</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>跟进绩效管理流程</t>
+  </si>
+  <si>
+    <t>1.&amp;nbsp每季度绩效目标设定和评估完成率90%以上；&lt;br&gt;2.&amp;nbsp参与绩效面谈率&amp;nbsp30%以上</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>培训管理与开发</t>
+  </si>
+  <si>
+    <t>1.&amp;nbsp组织新员工培训；&lt;br&gt;2.&amp;nbsp12月前开发一门新的培训课程</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>公司活动</t>
+  </si>
+  <si>
+    <t>组织公司活动，包括但不仅限于生日月，好人卡，一周一浪等</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>利用各种渠道完成招聘任务</t>
+  </si>
+  <si>
+    <t>1.&amp;nbsp招聘平均lead&amp;nbsptime&amp;nbsp小于30天</t>
+  </si>
+  <si>
+    <t>40%</t>
   </si>
   <si>
     <t>总分</t>
   </si>
   <si>
+    <t>最终评分</t>
+  </si>
+  <si>
+    <t>绩效等级</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>自我评价</t>
   </si>
   <si>
-    <t>哈哈哈哈阿拉山口简单了奥斯卡简单熟练度可骄傲是的卢卡斯和打蜡是可敬的asldkj爱上了会计师的浪费
- 水电费会计师的立方会计师的发了开始的飞机失联的开发机
-苏打绿分开就死定了客服解释道发</t>
+    <t>1. Q1共close5个职位，平均lead time 40天
+2. Q1设计季度绩效流程和制度
+3. 完成新员工入职培训
+4.组织各类公司活动</t>
   </si>
   <si>
     <t>主管总体评价</t>
   </si>
   <si>
-    <t xml:space="preserve">asda sd asd asd </t>
+    <t>招聘流程和管控较专业，能在规定的时间内完成职位的招聘；
+绩效推进待提高</t>
   </si>
   <si>
     <t>部门负责人总体评价</t>
   </si>
   <si>
-    <t>思考的积分换是东方红速度快回复收到了符号是的福建省df&amp;#39;是东方红是肯德基粉红色f是
-多看几家会更快的复合弓的复合弓的反馈国际化的fg
-的风格就肯定会疯狂过后的反光镜电话费感觉到法国和好
-的反馈及规划</t>
+    <t>能在规定的招聘周期内完成工作，并积极推广公司的branding</t>
   </si>
   <si>
     <t>被评估人签字确认评估结果：</t>
@@ -133,42 +144,29 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
+  <numFmts count="2">
+    <numFmt formatCode="yyyy\-mm\-dd" numFmtId="164"/>
+    <numFmt formatCode="yyyy-mm-dd" numFmtId="165"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
       <family val="2"/>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <color rgb="00000000"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <color rgb="00000000"/>
-      <sz val="9"/>
     </font>
     <font>
       <name val="Lucida Sans Unicode"/>
       <family val="2"/>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
       <family val="3"/>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
     </font>
     <font>
@@ -206,14 +204,6 @@
       <sz val="10"/>
     </font>
     <font>
-      <name val="幼圆"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color indexed="56"/>
-      <sz val="10"/>
-    </font>
-    <font>
       <name val="Lucida Sans Unicode"/>
       <family val="2"/>
       <b val="1"/>
@@ -242,12 +232,40 @@
       <sz val="10"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="幼圆"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color indexed="56"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="幼圆"/>
       <charset val="134"/>
       <family val="3"/>
       <b val="1"/>
       <color theme="3"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -367,244 +385,253 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="9" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="9" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="9" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="9" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="9" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="9" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="9" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="6" numFmtId="9" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="1"/>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="14" xfId="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="9" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="164" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="9" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="3">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="9" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="9" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="9" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="9" numFmtId="9" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="3">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="3">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="9" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="9" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="9" xfId="1"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="9" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="14" xfId="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="6" numFmtId="14" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="6" numFmtId="14" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="14" xfId="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="9" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="9" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="11" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="6" numFmtId="164" xfId="1">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="165" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -910,35 +937,36 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ30"/>
+  <dimension ref="A1:AQ32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="20.375"/>
     <col customWidth="1" max="3" min="2" style="1" width="21.875"/>
-    <col customWidth="1" max="4" min="4" style="34" width="24"/>
-    <col customWidth="1" max="5" min="5" style="35" width="14.625"/>
+    <col customWidth="1" max="4" min="4" style="33" width="24"/>
+    <col customWidth="1" max="5" min="5" style="34" width="14.625"/>
     <col customWidth="1" max="6" min="6" style="1" width="16.625"/>
     <col customWidth="1" max="7" min="7" style="1" width="14.375"/>
     <col customWidth="1" max="8" min="8" style="1" width="15.5"/>
-    <col customWidth="1" max="16384" min="9" style="1" width="8.875"/>
+    <col customWidth="1" max="9" min="9" style="1" width="8.875"/>
+    <col customWidth="1" max="16384" min="10" style="1" width="8.875"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="60.75" r="1" s="78" spans="1:43">
-      <c r="A1" s="69" t="n"/>
-      <c r="B1" s="69" t="n"/>
-      <c r="C1" s="69" t="n"/>
-      <c r="D1" s="69" t="n"/>
-      <c r="E1" s="69" t="n"/>
-      <c r="F1" s="69" t="n"/>
-      <c r="G1" s="69" t="n"/>
-      <c r="H1" s="69" t="n"/>
-    </row>
-    <row hidden="1" r="2" s="78" spans="1:43">
+    <row customHeight="1" ht="60.75" r="1" s="81" spans="1:43">
+      <c r="A1" s="73" t="n"/>
+      <c r="B1" s="73" t="n"/>
+      <c r="C1" s="73" t="n"/>
+      <c r="D1" s="73" t="n"/>
+      <c r="E1" s="73" t="n"/>
+      <c r="F1" s="73" t="n"/>
+      <c r="G1" s="73" t="n"/>
+      <c r="H1" s="73" t="n"/>
+    </row>
+    <row hidden="1" r="2" s="81" spans="1:43">
       <c r="A2" s="29" t="n"/>
       <c r="B2" s="29" t="n"/>
       <c r="C2" s="29" t="n"/>
@@ -983,7 +1011,7 @@
       <c r="AP2" s="29" t="n"/>
       <c r="AQ2" s="29" t="n"/>
     </row>
-    <row customHeight="1" ht="3" r="3" s="78" spans="1:43">
+    <row customHeight="1" ht="3" r="3" s="81" spans="1:43">
       <c r="A3" s="29" t="n"/>
       <c r="B3" s="29" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1028,18 +1056,18 @@
       <c r="AP3" s="29" t="n"/>
       <c r="AQ3" s="29" t="n"/>
     </row>
-    <row customHeight="1" ht="47.25" r="4" s="78" spans="1:43">
-      <c r="A4" s="73" t="s">
+    <row customHeight="1" ht="47.25" r="4" s="81" spans="1:43">
+      <c r="A4" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="74" t="n"/>
-      <c r="C4" s="74" t="n"/>
-      <c r="D4" s="74" t="n"/>
-      <c r="E4" s="74" t="n"/>
-      <c r="F4" s="74" t="n"/>
-      <c r="G4" s="74" t="n"/>
-      <c r="H4" s="75" t="n"/>
-      <c r="I4" s="37" t="n"/>
+      <c r="B4" s="77" t="n"/>
+      <c r="C4" s="77" t="n"/>
+      <c r="D4" s="77" t="n"/>
+      <c r="E4" s="77" t="n"/>
+      <c r="F4" s="77" t="n"/>
+      <c r="G4" s="77" t="n"/>
+      <c r="H4" s="78" t="n"/>
+      <c r="I4" s="36" t="n"/>
       <c r="J4" s="3" t="n"/>
       <c r="K4" s="3" t="n"/>
       <c r="L4" s="3" t="n"/>
@@ -1076,15 +1104,15 @@
       <c r="AQ4" s="3" t="n"/>
     </row>
     <row r="5" spans="1:43">
-      <c r="A5" s="37" t="n"/>
-      <c r="B5" s="37" t="n"/>
-      <c r="C5" s="37" t="n"/>
+      <c r="A5" s="36" t="n"/>
+      <c r="B5" s="36" t="n"/>
+      <c r="C5" s="36" t="n"/>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="4" t="n"/>
       <c r="F5" s="12" t="n"/>
       <c r="G5" s="12" t="n"/>
-      <c r="H5" s="37" t="n"/>
-      <c r="I5" s="37" t="n"/>
+      <c r="H5" s="36" t="n"/>
+      <c r="I5" s="36" t="n"/>
       <c r="J5" s="3" t="n"/>
       <c r="K5" s="3" t="n"/>
       <c r="L5" s="3" t="n"/>
@@ -1120,11 +1148,11 @@
       <c r="AP5" s="3" t="n"/>
       <c r="AQ5" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="27" r="6" s="78" spans="1:43">
-      <c r="A6" s="47" t="s">
+    <row customHeight="1" ht="27" r="6" s="81" spans="1:43">
+      <c r="A6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="41" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="13" t="n"/>
@@ -1132,12 +1160,12 @@
       <c r="E6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="79" t="n">
-        <v>42142</v>
-      </c>
-      <c r="G6" s="39" t="n"/>
+      <c r="F6" s="82" t="n">
+        <v>42321</v>
+      </c>
+      <c r="G6" s="45" t="n"/>
       <c r="H6" s="14" t="n"/>
-      <c r="I6" s="37" t="n"/>
+      <c r="I6" s="36" t="n"/>
       <c r="J6" s="3" t="n"/>
       <c r="K6" s="3" t="n"/>
       <c r="L6" s="3" t="n"/>
@@ -1173,24 +1201,24 @@
       <c r="AP6" s="3" t="n"/>
       <c r="AQ6" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="7" s="78" spans="1:43">
-      <c r="A7" s="48" t="s">
+    <row customHeight="1" ht="30" r="7" s="81" spans="1:43">
+      <c r="A7" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="42" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="15" t="n"/>
-      <c r="D7" s="33" t="n"/>
-      <c r="E7" s="56" t="s">
+      <c r="D7" s="53" t="n"/>
+      <c r="E7" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="38" t="n"/>
+      <c r="G7" s="43" t="n"/>
       <c r="H7" s="16" t="n"/>
-      <c r="I7" s="37" t="n"/>
+      <c r="I7" s="36" t="n"/>
       <c r="J7" s="3" t="n"/>
       <c r="K7" s="3" t="n"/>
       <c r="L7" s="3" t="n"/>
@@ -1226,15 +1254,15 @@
       <c r="AP7" s="3" t="n"/>
       <c r="AQ7" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="8" s="78" spans="1:43">
-      <c r="A8" s="40" t="n"/>
-      <c r="B8" s="43" t="n"/>
-      <c r="C8" s="43" t="n"/>
-      <c r="D8" s="43" t="n"/>
-      <c r="E8" s="43" t="n"/>
-      <c r="F8" s="43" t="n"/>
-      <c r="G8" s="43" t="n"/>
-      <c r="H8" s="43" t="n"/>
+    <row customHeight="1" ht="12" r="8" s="81" spans="1:43">
+      <c r="A8" s="37" t="n"/>
+      <c r="B8" s="39" t="n"/>
+      <c r="C8" s="39" t="n"/>
+      <c r="D8" s="39" t="n"/>
+      <c r="E8" s="39" t="n"/>
+      <c r="F8" s="39" t="n"/>
+      <c r="G8" s="39" t="n"/>
+      <c r="H8" s="39" t="n"/>
       <c r="I8" s="29" t="n"/>
       <c r="J8" s="29" t="n"/>
       <c r="K8" s="29" t="n"/>
@@ -1271,25 +1299,25 @@
       <c r="AP8" s="29" t="n"/>
       <c r="AQ8" s="29" t="n"/>
     </row>
-    <row customHeight="1" ht="52.5" r="9" s="78" spans="1:43">
-      <c r="A9" s="72" t="s">
+    <row customHeight="1" ht="52.5" r="9" s="81" spans="1:43">
+      <c r="A9" s="75" t="n"/>
+      <c r="B9" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="C9" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="72" t="n"/>
-      <c r="D9" s="72" t="n"/>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="50" t="n"/>
+      <c r="E9" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="72" t="s">
+      <c r="G9" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="72" t="s">
+      <c r="H9" s="75" t="s">
         <v>13</v>
       </c>
       <c r="I9" s="5" t="n"/>
@@ -1328,346 +1356,379 @@
       <c r="AP9" s="29" t="n"/>
       <c r="AQ9" s="29" t="n"/>
     </row>
-    <row customHeight="1" ht="36" r="10" s="78" spans="1:43">
-      <c r="A10" s="72" t="s">
+    <row customHeight="1" ht="36" r="10" s="81" spans="1:43">
+      <c r="A10" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="57" t="n"/>
-      <c r="E10" s="62" t="s">
+      <c r="D10" s="70" t="n"/>
+      <c r="E10" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="76" t="n">
-        <v>97</v>
-      </c>
-      <c r="G10" s="71" t="n">
+      <c r="F10" s="79" t="n">
         <v>80</v>
       </c>
-      <c r="H10" s="70" t="n">
-        <v>97</v>
+      <c r="G10" s="74" t="n">
+        <v>80</v>
+      </c>
+      <c r="H10" s="66" t="n">
+        <v>75</v>
       </c>
       <c r="I10" s="11" t="n"/>
-      <c r="J10" s="41" t="n"/>
-      <c r="K10" s="41" t="n"/>
-      <c r="L10" s="41" t="n"/>
-      <c r="M10" s="41" t="n"/>
-      <c r="N10" s="41" t="n"/>
-      <c r="O10" s="41" t="n"/>
-      <c r="P10" s="41" t="n"/>
-      <c r="Q10" s="41" t="n"/>
-      <c r="R10" s="41" t="n"/>
-      <c r="S10" s="41" t="n"/>
-      <c r="T10" s="41" t="n"/>
-      <c r="U10" s="41" t="n"/>
-      <c r="V10" s="41" t="n"/>
-      <c r="W10" s="41" t="n"/>
-      <c r="X10" s="41" t="n"/>
-      <c r="Y10" s="41" t="n"/>
-      <c r="Z10" s="41" t="n"/>
-      <c r="AA10" s="41" t="n"/>
-      <c r="AB10" s="41" t="n"/>
-      <c r="AC10" s="41" t="n"/>
-      <c r="AD10" s="41" t="n"/>
-      <c r="AE10" s="41" t="n"/>
-      <c r="AF10" s="41" t="n"/>
-      <c r="AG10" s="41" t="n"/>
-      <c r="AH10" s="41" t="n"/>
-      <c r="AI10" s="41" t="n"/>
-      <c r="AJ10" s="41" t="n"/>
-      <c r="AK10" s="41" t="n"/>
-      <c r="AL10" s="41" t="n"/>
-      <c r="AM10" s="41" t="n"/>
-      <c r="AN10" s="41" t="n"/>
-      <c r="AO10" s="41" t="n"/>
-      <c r="AP10" s="41" t="n"/>
-      <c r="AQ10" s="41" t="n"/>
-    </row>
-    <row customHeight="1" ht="30.75" r="11" s="78" spans="1:43">
-      <c r="A11" s="72" t="n"/>
-      <c r="B11" s="61" t="n"/>
-      <c r="C11" s="58" t="n"/>
-      <c r="D11" s="58" t="n"/>
-      <c r="E11" s="62" t="n"/>
-      <c r="F11" s="76" t="n"/>
-      <c r="G11" s="71" t="n"/>
-      <c r="H11" s="70" t="n"/>
+      <c r="J10" s="38" t="n"/>
+      <c r="K10" s="38" t="n"/>
+      <c r="L10" s="38" t="n"/>
+      <c r="M10" s="38" t="n"/>
+      <c r="N10" s="38" t="n"/>
+      <c r="O10" s="38" t="n"/>
+      <c r="P10" s="38" t="n"/>
+      <c r="Q10" s="38" t="n"/>
+      <c r="R10" s="38" t="n"/>
+      <c r="S10" s="38" t="n"/>
+      <c r="T10" s="38" t="n"/>
+      <c r="U10" s="38" t="n"/>
+      <c r="V10" s="38" t="n"/>
+      <c r="W10" s="38" t="n"/>
+      <c r="X10" s="38" t="n"/>
+      <c r="Y10" s="38" t="n"/>
+      <c r="Z10" s="38" t="n"/>
+      <c r="AA10" s="38" t="n"/>
+      <c r="AB10" s="38" t="n"/>
+      <c r="AC10" s="38" t="n"/>
+      <c r="AD10" s="38" t="n"/>
+      <c r="AE10" s="38" t="n"/>
+      <c r="AF10" s="38" t="n"/>
+      <c r="AG10" s="38" t="n"/>
+      <c r="AH10" s="38" t="n"/>
+      <c r="AI10" s="38" t="n"/>
+      <c r="AJ10" s="38" t="n"/>
+      <c r="AK10" s="38" t="n"/>
+      <c r="AL10" s="38" t="n"/>
+      <c r="AM10" s="38" t="n"/>
+      <c r="AN10" s="38" t="n"/>
+      <c r="AO10" s="38" t="n"/>
+      <c r="AP10" s="38" t="n"/>
+      <c r="AQ10" s="38" t="n"/>
+    </row>
+    <row customHeight="1" ht="30.75" r="11" s="81" spans="1:43">
+      <c r="A11" s="75" t="n"/>
+      <c r="B11" s="62" t="n"/>
+      <c r="C11" s="71" t="n"/>
+      <c r="D11" s="71" t="n"/>
+      <c r="E11" s="63" t="n"/>
+      <c r="F11" s="79" t="n"/>
+      <c r="G11" s="74" t="n"/>
+      <c r="H11" s="66" t="n"/>
       <c r="I11" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="43.5" r="12" s="78" spans="1:43">
-      <c r="A12" s="72" t="n"/>
+    <row customHeight="1" ht="43.5" r="12" s="81" spans="1:43">
+      <c r="A12" s="75" t="n"/>
       <c r="B12" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="57" t="n"/>
-      <c r="E12" s="62" t="s">
+      <c r="D12" s="70" t="n"/>
+      <c r="E12" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="65" t="n">
-        <v>97</v>
-      </c>
-      <c r="G12" s="64" t="n">
+      <c r="F12" s="64" t="n">
         <v>80</v>
       </c>
-      <c r="H12" s="65" t="n">
-        <v>97</v>
+      <c r="G12" s="65" t="n">
+        <v>80</v>
+      </c>
+      <c r="H12" s="64" t="n">
+        <v>80</v>
       </c>
       <c r="I12" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="13" s="78" spans="1:43">
-      <c r="A13" s="72" t="n"/>
+    <row customHeight="1" ht="30" r="13" s="81" spans="1:43">
+      <c r="A13" s="75" t="n"/>
       <c r="B13" s="67" t="n"/>
-      <c r="C13" s="58" t="n"/>
-      <c r="D13" s="58" t="n"/>
-      <c r="E13" s="62" t="n"/>
-      <c r="F13" s="65" t="n"/>
-      <c r="G13" s="64" t="n"/>
-      <c r="H13" s="65" t="n"/>
+      <c r="C13" s="71" t="n"/>
+      <c r="D13" s="71" t="n"/>
+      <c r="E13" s="63" t="n"/>
+      <c r="F13" s="64" t="n"/>
+      <c r="G13" s="65" t="n"/>
+      <c r="H13" s="64" t="n"/>
       <c r="I13" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="43.5" r="14" s="78" spans="1:43">
-      <c r="A14" s="72" t="n"/>
+    <row customHeight="1" ht="43.5" r="14" s="81" spans="1:43">
+      <c r="A14" s="75" t="n"/>
       <c r="B14" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="57" t="n"/>
-      <c r="E14" s="62" t="s">
+      <c r="D14" s="70" t="n"/>
+      <c r="E14" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="65" t="n">
-        <v>97</v>
-      </c>
-      <c r="G14" s="64" t="n">
+      <c r="F14" s="64" t="n">
         <v>80</v>
       </c>
-      <c r="H14" s="65" t="n">
-        <v>97</v>
+      <c r="G14" s="65" t="n">
+        <v>75</v>
+      </c>
+      <c r="H14" s="64" t="n">
+        <v>80</v>
       </c>
       <c r="I14" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="15" s="78" spans="1:43">
-      <c r="A15" s="72" t="n"/>
+    <row customHeight="1" ht="30" r="15" s="81" spans="1:43">
+      <c r="A15" s="75" t="n"/>
       <c r="B15" s="67" t="n"/>
-      <c r="C15" s="58" t="n"/>
-      <c r="D15" s="58" t="n"/>
-      <c r="E15" s="62" t="n"/>
-      <c r="F15" s="65" t="n"/>
-      <c r="G15" s="64" t="n"/>
-      <c r="H15" s="65" t="n"/>
+      <c r="C15" s="71" t="n"/>
+      <c r="D15" s="71" t="n"/>
+      <c r="E15" s="63" t="n"/>
+      <c r="F15" s="64" t="n"/>
+      <c r="G15" s="65" t="n"/>
+      <c r="H15" s="64" t="n"/>
       <c r="I15" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="43.5" r="16" s="78" spans="1:43">
-      <c r="A16" s="72" t="n"/>
+    <row customHeight="1" ht="43.5" r="16" s="81" spans="1:43">
+      <c r="A16" s="75" t="n"/>
       <c r="B16" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="57" t="n"/>
-      <c r="E16" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="65" t="n">
-        <v>97</v>
-      </c>
-      <c r="G16" s="64" t="n">
+      <c r="D16" s="70" t="n"/>
+      <c r="E16" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="64" t="n">
+        <v>85</v>
+      </c>
+      <c r="G16" s="65" t="n">
+        <v>75</v>
+      </c>
+      <c r="H16" s="64" t="n">
         <v>80</v>
       </c>
-      <c r="H16" s="65" t="n">
-        <v>97</v>
-      </c>
       <c r="I16" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="43.5" r="17" s="78" spans="1:43">
-      <c r="A17" s="72" t="n"/>
+    <row customHeight="1" ht="43.5" r="17" s="81" spans="1:43">
+      <c r="A17" s="75" t="n"/>
       <c r="B17" s="67" t="n"/>
-      <c r="C17" s="58" t="n"/>
-      <c r="D17" s="58" t="n"/>
-      <c r="E17" s="62" t="n"/>
-      <c r="F17" s="65" t="n"/>
-      <c r="G17" s="64" t="n"/>
-      <c r="H17" s="65" t="n"/>
+      <c r="C17" s="71" t="n"/>
+      <c r="D17" s="71" t="n"/>
+      <c r="E17" s="63" t="n"/>
+      <c r="F17" s="64" t="n"/>
+      <c r="G17" s="65" t="n"/>
+      <c r="H17" s="64" t="n"/>
       <c r="I17" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="43.5" r="18" s="78" spans="1:43">
-      <c r="A18" s="72" t="n"/>
+    <row customHeight="1" ht="43.5" r="18" s="81" spans="1:43">
+      <c r="A18" s="75" t="n"/>
       <c r="B18" s="67" t="n"/>
-      <c r="C18" s="57" t="n"/>
-      <c r="D18" s="57" t="n"/>
-      <c r="E18" s="62" t="n"/>
-      <c r="F18" s="65" t="n"/>
-      <c r="G18" s="64" t="n"/>
-      <c r="H18" s="65" t="n"/>
+      <c r="C18" s="70" t="n"/>
+      <c r="D18" s="70" t="n"/>
+      <c r="E18" s="63" t="n"/>
+      <c r="F18" s="64" t="n"/>
+      <c r="G18" s="65" t="n"/>
+      <c r="H18" s="64" t="n"/>
       <c r="I18" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="19" s="78" spans="1:43">
-      <c r="A19" s="72" t="n"/>
+    <row customHeight="1" ht="30" r="19" s="81" spans="1:43">
+      <c r="A19" s="75" t="n"/>
       <c r="B19" s="67" t="n"/>
-      <c r="C19" s="58" t="n"/>
-      <c r="D19" s="58" t="n"/>
-      <c r="E19" s="62" t="n"/>
-      <c r="F19" s="65" t="n"/>
-      <c r="G19" s="64" t="n"/>
-      <c r="H19" s="65" t="n"/>
+      <c r="C19" s="71" t="n"/>
+      <c r="D19" s="71" t="n"/>
+      <c r="E19" s="63" t="n"/>
+      <c r="F19" s="64" t="n"/>
+      <c r="G19" s="65" t="n"/>
+      <c r="H19" s="64" t="n"/>
       <c r="I19" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="36.75" r="20" s="78" spans="1:43">
-      <c r="A20" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="70" t="n"/>
-      <c r="C20" s="70" t="n"/>
-      <c r="D20" s="70" t="n"/>
-      <c r="E20" s="54" t="n"/>
-      <c r="F20" s="54" t="n"/>
-      <c r="G20" s="76" t="n"/>
-      <c r="H20" s="76" t="n">
-        <v>97</v>
+    <row customHeight="1" ht="30" r="20" s="81" spans="1:43">
+      <c r="A20" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="67" t="n"/>
+      <c r="C20" s="71" t="n"/>
+      <c r="D20" s="71" t="n"/>
+      <c r="E20" s="63" t="n"/>
+      <c r="F20" s="64" t="n">
+        <v>82</v>
+      </c>
+      <c r="G20" s="65" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="H20" s="64" t="n">
+        <v>78.5</v>
       </c>
       <c r="I20" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="150" r="21" s="78" spans="1:43">
-      <c r="A21" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="61" t="s">
+    <row customHeight="1" ht="36.75" r="21" s="81" spans="1:43">
+      <c r="A21" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="77" t="n"/>
-      <c r="D21" s="77" t="n"/>
-      <c r="E21" s="77" t="n"/>
-      <c r="F21" s="77" t="n"/>
-      <c r="G21" s="77" t="n"/>
-      <c r="H21" s="77" t="n"/>
+      <c r="B21" s="66" t="n"/>
+      <c r="C21" s="66" t="n"/>
+      <c r="D21" s="66" t="n"/>
+      <c r="E21" s="44" t="n"/>
+      <c r="F21" s="44" t="n"/>
+      <c r="G21" s="79" t="n"/>
+      <c r="H21" s="79" t="n">
+        <v>78.5</v>
+      </c>
       <c r="I21" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="150" r="22" s="78" spans="1:43">
-      <c r="A22" s="72" t="s">
+    <row customHeight="1" ht="36.75" r="22" s="81" spans="1:43">
+      <c r="A22" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="66" t="n"/>
+      <c r="C22" s="66" t="n"/>
+      <c r="D22" s="66" t="n"/>
+      <c r="E22" s="44" t="n"/>
+      <c r="F22" s="44" t="n"/>
+      <c r="G22" s="79" t="n"/>
+      <c r="H22" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="61" t="n"/>
-      <c r="D22" s="61" t="n"/>
-      <c r="E22" s="61" t="n"/>
-      <c r="F22" s="61" t="n"/>
-      <c r="G22" s="61" t="n"/>
-      <c r="H22" s="61" t="n"/>
       <c r="I22" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="150" r="23" s="78" spans="1:43">
-      <c r="A23" s="72" t="s">
+    <row customHeight="1" ht="150" r="23" s="81" spans="1:43">
+      <c r="A23" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="61" t="n"/>
-      <c r="D23" s="61" t="n"/>
-      <c r="E23" s="61" t="n"/>
-      <c r="F23" s="61" t="n"/>
-      <c r="G23" s="61" t="n"/>
-      <c r="H23" s="61" t="n"/>
+      <c r="C23" s="69" t="n"/>
+      <c r="D23" s="69" t="n"/>
+      <c r="E23" s="69" t="n"/>
+      <c r="F23" s="69" t="n"/>
+      <c r="G23" s="69" t="n"/>
+      <c r="H23" s="69" t="n"/>
       <c r="I23" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="10.5" r="24" s="78" spans="1:43">
-      <c r="A24" s="72" t="n"/>
-      <c r="B24" s="61" t="n"/>
-      <c r="C24" s="61" t="n"/>
-      <c r="D24" s="61" t="n"/>
-      <c r="E24" s="61" t="n"/>
-      <c r="F24" s="61" t="n"/>
-      <c r="G24" s="61" t="n"/>
-      <c r="H24" s="61" t="n"/>
+    <row customHeight="1" ht="150" r="24" s="81" spans="1:43">
+      <c r="A24" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="62" t="n"/>
+      <c r="D24" s="62" t="n"/>
+      <c r="E24" s="62" t="n"/>
+      <c r="F24" s="62" t="n"/>
+      <c r="G24" s="62" t="n"/>
+      <c r="H24" s="62" t="n"/>
       <c r="I24" s="11" t="n"/>
     </row>
-    <row r="25" spans="1:43">
-      <c r="A25" s="68" t="n"/>
-      <c r="B25" s="2" t="n"/>
-      <c r="C25" s="2" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="7" t="n"/>
-      <c r="F25" s="8" t="n"/>
-      <c r="G25" s="9" t="n"/>
-      <c r="H25" s="8" t="n"/>
-    </row>
-    <row customHeight="1" ht="33.75" r="26" s="78" spans="1:43">
-      <c r="A26" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="59" t="n"/>
-      <c r="C26" s="36" t="n"/>
-      <c r="D26" s="6" t="n"/>
-      <c r="E26" s="7" t="n"/>
-      <c r="F26" s="8" t="n"/>
-      <c r="G26" s="9" t="n"/>
-      <c r="H26" s="8" t="n"/>
-    </row>
-    <row customHeight="1" ht="18.75" r="27" s="78" spans="1:43">
+    <row customHeight="1" ht="150" r="25" s="81" spans="1:43">
+      <c r="A25" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="62" t="n"/>
+      <c r="D25" s="62" t="n"/>
+      <c r="E25" s="62" t="n"/>
+      <c r="F25" s="62" t="n"/>
+      <c r="G25" s="62" t="n"/>
+      <c r="H25" s="62" t="n"/>
+      <c r="I25" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="10.5" r="26" s="81" spans="1:43">
+      <c r="A26" s="75" t="n"/>
+      <c r="B26" s="62" t="n"/>
+      <c r="C26" s="62" t="n"/>
+      <c r="D26" s="62" t="n"/>
+      <c r="E26" s="62" t="n"/>
+      <c r="F26" s="62" t="n"/>
+      <c r="G26" s="62" t="n"/>
+      <c r="H26" s="62" t="n"/>
+      <c r="I26" s="11" t="n"/>
+    </row>
+    <row r="27" spans="1:43">
       <c r="A27" s="68" t="n"/>
       <c r="B27" s="2" t="n"/>
       <c r="C27" s="2" t="n"/>
-      <c r="D27" s="18" t="n"/>
-      <c r="E27" s="19" t="n"/>
-      <c r="F27" s="20" t="n"/>
-      <c r="G27" s="21" t="n"/>
-      <c r="H27" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="15" r="28" s="78" spans="1:43">
-      <c r="A28" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="68" t="n"/>
-      <c r="C28" s="45" t="n"/>
-      <c r="D28" s="10" t="n"/>
-      <c r="E28" s="22" t="n"/>
-      <c r="F28" s="23" t="n"/>
-      <c r="G28" s="24" t="n"/>
-      <c r="H28" s="23" t="n"/>
-    </row>
-    <row r="29" spans="1:43">
+      <c r="D27" s="6" t="n"/>
+      <c r="E27" s="7" t="n"/>
+      <c r="F27" s="8" t="n"/>
+      <c r="G27" s="9" t="n"/>
+      <c r="H27" s="8" t="n"/>
+    </row>
+    <row customHeight="1" ht="33.75" r="28" s="81" spans="1:43">
+      <c r="A28" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="72" t="n"/>
+      <c r="C28" s="35" t="n"/>
+      <c r="D28" s="6" t="n"/>
+      <c r="E28" s="7" t="n"/>
+      <c r="F28" s="8" t="n"/>
+      <c r="G28" s="9" t="n"/>
+      <c r="H28" s="8" t="n"/>
+    </row>
+    <row customHeight="1" ht="18.75" r="29" s="81" spans="1:43">
       <c r="A29" s="68" t="n"/>
-      <c r="B29" s="68" t="n"/>
-      <c r="C29" s="68" t="n"/>
-      <c r="D29" s="25" t="n"/>
-      <c r="E29" s="26" t="n"/>
-      <c r="F29" s="27" t="n"/>
-      <c r="G29" s="28" t="n"/>
-      <c r="H29" s="27" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.25" r="30" s="78" spans="1:43">
+      <c r="B29" s="2" t="n"/>
+      <c r="C29" s="2" t="n"/>
+      <c r="D29" s="18" t="n"/>
+      <c r="E29" s="19" t="n"/>
+      <c r="F29" s="20" t="n"/>
+      <c r="G29" s="21" t="n"/>
+      <c r="H29" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="30" s="81" spans="1:43">
       <c r="A30" s="68" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B30" s="68" t="n"/>
-      <c r="C30" s="45" t="n"/>
+      <c r="C30" s="40" t="n"/>
       <c r="D30" s="10" t="n"/>
       <c r="E30" s="22" t="n"/>
       <c r="F30" s="23" t="n"/>
       <c r="G30" s="24" t="n"/>
       <c r="H30" s="23" t="n"/>
     </row>
+    <row r="31" spans="1:43">
+      <c r="A31" s="68" t="n"/>
+      <c r="B31" s="68" t="n"/>
+      <c r="C31" s="68" t="n"/>
+      <c r="D31" s="25" t="n"/>
+      <c r="E31" s="26" t="n"/>
+      <c r="F31" s="27" t="n"/>
+      <c r="G31" s="28" t="n"/>
+      <c r="H31" s="27" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.25" r="32" s="81" spans="1:43">
+      <c r="A32" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="68" t="n"/>
+      <c r="C32" s="40" t="n"/>
+      <c r="D32" s="10" t="n"/>
+      <c r="E32" s="22" t="n"/>
+      <c r="F32" s="23" t="n"/>
+      <c r="G32" s="24" t="n"/>
+      <c r="H32" s="23" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="41">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="B9:D9"/>
     <mergeCell ref="A10:A19"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
@@ -1677,28 +1738,28 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="C12:D13"/>
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C14:D15"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B23:H23"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="B24:H24"/>
     <mergeCell ref="C16:D17"/>
     <mergeCell ref="C18:D19"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B25:H25"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
